--- a/biology/Écologie/Facteur_de_concentration/Facteur_de_concentration.xlsx
+++ b/biology/Écologie/Facteur_de_concentration/Facteur_de_concentration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de l'écotoxicologie ou de la toxicologie ou de la radioécologie la bioconcentration est un des facteurs importants car il détermine la capacité du produit à se concentrer tout au long de la chaine alimentaire. Dans les systèmes théoriques ou modèles très simplifiés de cinétique d'un produit dans l'environnement, on l'estime au moyen d'un facteur de concentration.  
 </t>
@@ -511,12 +523,14 @@
           <t>En radioécologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « facteur de concentration » (FC) est un facteur théorique qui se calcule par la mesure de la radioactivité de l'organisme (en Bq.kg-1) divisée par la radioactivité de l'eau (Bq.L-1) (ou l'air ou le sédiment). 
 c'est une donnée uniquement expérimentale, car établie à partir d'une seule une source physique et sans tenir compte de tous les processus biologiques. 
 Par exemple, pour le tritium, il y a équilibre théorique avec l’eau donc le FC sera théoriquement proche de 1, mais le FC ne représente pas la réalité car il néglige notamment les transferts trophiques. 
-Plusieurs études ont montré des facteurs de concentration bien plus élevé que 1 pour le tritium dans la nature[1].
+Plusieurs études ont montré des facteurs de concentration bien plus élevé que 1 pour le tritium dans la nature.
 </t>
         </is>
       </c>
